--- a/docs/odh/shr-core-Organization-model.xlsx
+++ b/docs/odh/shr-core-Organization-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$16</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="83">
   <si>
     <t>Path</t>
   </si>
@@ -134,8 +134,8 @@
     <t>*</t>
   </si>
   <si>
-    <t>A social or legal structure formed by human beings.
-Organization type is restricted to 0..1 in FHIR DSTU2, similarly restricted here.</t>
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action. Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.
+Organization type is restricted to 0..1 in FHIR DSTU2, similarly restricted here. Other required attributes come from STU 3 mapping to us-core-organization.</t>
   </si>
   <si>
     <t>shr-core-Organization-model.metadata</t>
@@ -144,7 +144,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -161,10 +161,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-Organization-model.implicitRules</t>
   </si>
   <si>
@@ -178,7 +174,7 @@
     <t>shr-core-Organization-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -191,16 +187,10 @@
     <t>A state that relates to the workflow or interpretation of this resource. Certain status values can modify the meaning of the resource, for example, entered-in-error. When a boolean value is used, Status of true indicates the record is active, false means inactive.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/ActiveOrInactiveVS</t>
-  </si>
-  <si>
     <t>shr-core-Organization-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -210,69 +200,83 @@
     <t>shr-core-Organization-model.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model]]}
 </t>
   </si>
   <si>
     <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1561598
+    <t>shr-core-Organization-model.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
-    <t>shr-core-Organization-model.organizationName</t>
+    <t>Whether the record is in use (true) or retired (false).</t>
+  </si>
+  <si>
+    <t>shr-core-Organization-model.type</t>
+  </si>
+  <si>
+    <t>A code describing the item at a greater level of detail.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0332307
+</t>
+  </si>
+  <si>
+    <t>shr-core-Organization-model.name</t>
   </si>
   <si>
     <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
-    <t>The name of the organization.</t>
-  </si>
-  <si>
-    <t>shr-core-Organization-model.type</t>
-  </si>
-  <si>
-    <t>A code describing the item at a greater level of detail.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0332307
+    <t>The name as plain unstructured or semi-structured text.</t>
+  </si>
+  <si>
+    <t>shr-core-Organization-model.alias</t>
+  </si>
+  <si>
+    <t>A list of alternate names the subject is or was known as.</t>
+  </si>
+  <si>
+    <t>shr-core-Organization-model.contactPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ContactPoint-model {[]} {[]}
 </t>
   </si>
   <si>
+    <t>An electronic means of contacting an organization or individual.</t>
+  </si>
+  <si>
     <t>shr-core-Organization-model.address</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Address-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Address-model {[]} {[]}
 </t>
   </si>
   <si>
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats). This data type may be used to convey addresses for use in delivering mail as well as for visiting locations and which might not be valid for mail delivery. There are a variety of postal address formats defined around the world. (Source: HL7 FHIR).</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0682130
+    <t>shr-core-Organization-model.contactPerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ContactPerson-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>shr-core-Organization-model.contactPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ContactPoint-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>An electronic means of contacting an organization or individual.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C2986441
-</t>
+    <t>A contact party (e.g. guardian, partner, friend) for the person</t>
   </si>
 </sst>
 </file>
@@ -421,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -430,7 +434,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.95703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.3515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -454,13 +458,13 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="42.765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="43.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="40.3515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -833,7 +837,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -865,7 +869,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -888,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -945,7 +949,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -962,7 +966,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -985,13 +989,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1042,7 +1046,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1059,7 +1063,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1067,7 +1071,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>41</v>
@@ -1085,10 +1089,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1115,11 +1119,13 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X7" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y7" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1137,10 +1143,10 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>41</v>
@@ -1154,7 +1160,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1177,13 +1183,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1234,7 +1240,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -1251,7 +1257,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1274,13 +1280,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1316,7 +1322,7 @@
         <v>36</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>36</v>
@@ -1331,7 +1337,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -1348,7 +1354,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1371,13 +1377,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1428,7 +1434,7 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -1445,7 +1451,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1471,10 +1477,10 @@
         <v>45</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1501,14 +1507,14 @@
         <v>36</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1523,7 +1529,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>37</v>
@@ -1540,7 +1546,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1551,7 +1557,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>36</v>
@@ -1563,13 +1569,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1605,7 +1611,7 @@
         <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -1620,13 +1626,13 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>36</v>
@@ -1637,7 +1643,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1645,7 +1651,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>38</v>
@@ -1660,13 +1666,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1702,7 +1708,7 @@
         <v>36</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>36</v>
@@ -1717,10 +1723,10 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
@@ -1732,8 +1738,299 @@
         <v>36</v>
       </c>
     </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI13">
+  <autoFilter ref="A1:AI16">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1743,7 +2040,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI12">
+  <conditionalFormatting sqref="A2:AI15">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
